--- a/src/test/resources/TestData/testdata-api.xlsx
+++ b/src/test/resources/TestData/testdata-api.xlsx
@@ -1263,7 +1263,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="2"/>
